--- a/src/utils/sxsyzlzq/wuqi/zz_shenqi_shengji.xlsx
+++ b/src/utils/sxsyzlzq/wuqi/zz_shenqi_shengji.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t>蓝色</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>橙色碎片</t>
+  </si>
+  <si>
+    <t>橙色累计</t>
   </si>
   <si>
     <t>0-1星</t>
@@ -1022,15 +1025,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U43" sqref="U43"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1049,10 +1052,13 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" hidden="1" spans="1:2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -1060,7 +1066,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -1068,7 +1074,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>80</v>
@@ -1079,7 +1085,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -1090,7 +1096,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>400</v>
@@ -1101,7 +1107,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>100</v>
@@ -1113,9 +1119,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>160</v>
@@ -1126,10 +1132,13 @@
       <c r="F8">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>300</v>
@@ -1140,10 +1149,13 @@
       <c r="F9">
         <v>225</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>500</v>
@@ -1157,10 +1169,13 @@
       <c r="F10">
         <v>240</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>800</v>
@@ -1174,10 +1189,13 @@
       <c r="F11">
         <v>400</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>5000</v>
@@ -1194,10 +1212,13 @@
       <c r="F12">
         <v>500</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>8000</v>
@@ -1214,10 +1235,13 @@
       <c r="F13">
         <v>600</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>10500</v>
@@ -1234,15 +1258,18 @@
       <c r="F14">
         <v>800</v>
       </c>
+      <c r="G14">
+        <v>2795</v>
+      </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" hidden="1" spans="1:2">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -1250,7 +1277,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <v>60</v>
@@ -1258,7 +1285,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18">
         <v>120</v>
@@ -1269,7 +1296,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>300</v>
@@ -1280,7 +1307,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>600</v>
@@ -1291,7 +1318,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <v>150</v>
@@ -1303,9 +1330,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22">
         <v>260</v>
@@ -1316,10 +1343,13 @@
       <c r="F22">
         <v>80</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>450</v>
@@ -1330,10 +1360,13 @@
       <c r="F23">
         <v>480</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24">
         <v>750</v>
@@ -1347,10 +1380,13 @@
       <c r="F24">
         <v>600</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C25">
         <v>1200</v>
@@ -1364,10 +1400,13 @@
       <c r="F25">
         <v>900</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26">
         <v>7500</v>
@@ -1384,10 +1423,13 @@
       <c r="F26">
         <v>1000</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27">
         <v>12000</v>
@@ -1404,10 +1446,13 @@
       <c r="F27">
         <v>1200</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B28">
         <v>15000</v>
@@ -1424,15 +1469,18 @@
       <c r="F28">
         <v>1500</v>
       </c>
+      <c r="G28">
+        <v>5760</v>
+      </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" hidden="1" spans="1:2">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B30">
         <v>20</v>
@@ -1440,7 +1488,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B31">
         <v>90</v>
@@ -1448,7 +1496,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B32">
         <v>200</v>
@@ -1459,7 +1507,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B33">
         <v>500</v>
@@ -1470,7 +1518,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B34">
         <v>900</v>
@@ -1481,7 +1529,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C35">
         <v>240</v>
@@ -1493,9 +1541,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C36">
         <v>400</v>
@@ -1506,10 +1554,13 @@
       <c r="F36">
         <v>125</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C37">
         <v>680</v>
@@ -1520,10 +1571,13 @@
       <c r="F37">
         <v>900</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C38">
         <v>1000</v>
@@ -1537,10 +1591,13 @@
       <c r="F38">
         <v>1000</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C39">
         <v>1600</v>
@@ -1554,10 +1611,13 @@
       <c r="F39">
         <v>1800</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B40">
         <v>10000</v>
@@ -1574,10 +1634,13 @@
       <c r="F40">
         <v>2000</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40">
+        <v>5825</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B41">
         <v>16000</v>
@@ -1594,10 +1657,13 @@
       <c r="F41">
         <v>2400</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41">
+        <v>8225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B42">
         <v>20000</v>
@@ -1613,6 +1679,9 @@
       </c>
       <c r="F42">
         <v>2800</v>
+      </c>
+      <c r="G42">
+        <v>11025</v>
       </c>
     </row>
   </sheetData>
